--- a/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{219FB0A7-B3D1-4D9D-AD46-2E6028E3C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D37CBA0-9976-49D6-B242-BBA8EFFAB753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5A0224D-A117-428E-A81E-E08CCED9C8E5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F5C328-06CC-45F3-8C32-BFA7FC6C8A52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,72%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
@@ -104,10 +104,10 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -116,16 +116,16 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,3%</t>
+    <t>4,27%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>Sí, mi médico/a</t>
@@ -134,28 +134,28 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -164,10 +164,10 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>74,18%</t>
@@ -176,643 +176,652 @@
     <t>66,4%</t>
   </si>
   <si>
-    <t>80,18%</t>
+    <t>80,23%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>3,56%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>27,41%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514C2848-87C4-4837-A610-599196BF8E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF6DE7-9EB9-477C-AEB0-D4B5425B5606}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1728,10 +1737,10 @@
         <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -1740,13 +1749,13 @@
         <v>127873</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1770,13 @@
         <v>322199</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
@@ -1776,13 +1785,13 @@
         <v>371842</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>572</v>
@@ -1791,13 +1800,13 @@
         <v>694041</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1862,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1865,13 +1874,13 @@
         <v>47494</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -1880,13 +1889,13 @@
         <v>44214</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -1895,13 +1904,13 @@
         <v>91707</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1925,13 @@
         <v>14807</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -1931,13 +1940,13 @@
         <v>23972</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -1946,13 +1955,13 @@
         <v>38779</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1976,13 @@
         <v>92924</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -1982,13 +1991,13 @@
         <v>110380</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -1997,13 +2006,13 @@
         <v>203303</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2027,7 @@
         <v>402028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>116</v>
@@ -2140,10 +2149,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2152,13 +2161,13 @@
         <v>92489</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2182,13 @@
         <v>16459</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2188,13 +2197,13 @@
         <v>26457</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2415,7 +2424,7 @@
         <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2439,13 @@
         <v>19110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2445,13 +2454,13 @@
         <v>24488</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -2460,13 +2469,13 @@
         <v>43598</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2490,13 @@
         <v>200208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>290</v>
@@ -2496,13 +2505,13 @@
         <v>178191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>510</v>
@@ -2511,13 +2520,13 @@
         <v>378400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2541,13 @@
         <v>327124</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>621</v>
@@ -2547,13 +2556,13 @@
         <v>358211</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>985</v>
@@ -2562,13 +2571,13 @@
         <v>685335</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2633,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2633,16 +2642,16 @@
         <v>79</v>
       </c>
       <c r="D29" s="7">
-        <v>59143</v>
+        <v>59144</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -2651,13 +2660,13 @@
         <v>62710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -2666,13 +2675,13 @@
         <v>121854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2696,13 @@
         <v>20615</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -2702,13 +2711,13 @@
         <v>22424</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -2717,13 +2726,13 @@
         <v>43038</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2747,13 @@
         <v>282678</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>670</v>
@@ -2753,13 +2762,13 @@
         <v>363585</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>1093</v>
@@ -2768,13 +2777,13 @@
         <v>646263</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2798,13 @@
         <v>335318</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>892</v>
@@ -2804,13 +2813,13 @@
         <v>576853</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>1389</v>
@@ -2819,13 +2828,13 @@
         <v>912171</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2846,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2893,13 +2902,13 @@
         <v>287344</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>342</v>
@@ -2908,13 +2917,13 @@
         <v>267309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="M34" s="7">
         <v>608</v>
@@ -2923,13 +2932,13 @@
         <v>554653</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2953,13 @@
         <v>98614</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>159</v>
@@ -2959,13 +2968,13 @@
         <v>117410</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>260</v>
@@ -2974,13 +2983,13 @@
         <v>216024</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3004,13 @@
         <v>878432</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1476</v>
@@ -3010,13 +3019,13 @@
         <v>962381</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>2410</v>
@@ -3025,13 +3034,13 @@
         <v>1840813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3055,13 @@
         <v>2120838</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>3384</v>
@@ -3061,28 +3070,28 @@
         <v>2459398</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>5459</v>
       </c>
       <c r="N37" s="7">
-        <v>4580237</v>
+        <v>4580236</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3133,7 @@
         <v>8737</v>
       </c>
       <c r="N38" s="7">
-        <v>7191727</v>
+        <v>7191726</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3138,7 +3147,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D37CBA0-9976-49D6-B242-BBA8EFFAB753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C5126C-20DA-4F8E-8AD3-651180B620A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F5C328-06CC-45F3-8C32-BFA7FC6C8A52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0AFF91C-70C4-4EEF-997A-06E8463A35A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF6DE7-9EB9-477C-AEB0-D4B5425B5606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A261C5C9-69FD-46C5-BF28-5CF3BF234759}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C5126C-20DA-4F8E-8AD3-651180B620A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E7EE7D-D502-4C84-A415-BF0276E03ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0AFF91C-70C4-4EEF-997A-06E8463A35A2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F42F88A-CC4B-4FB7-AFF5-1964D496B419}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,72%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
@@ -104,10 +104,10 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -116,712 +116,703 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>43,58%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>52,93%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>27,41%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
   </si>
   <si>
     <t>63,69%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1236,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A261C5C9-69FD-46C5-BF28-5CF3BF234759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659E352A-090E-4AF4-971F-2A296E2D9A58}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,10 +1728,10 @@
         <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -1749,13 +1740,13 @@
         <v>127873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1761,13 @@
         <v>322199</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
@@ -1785,13 +1776,13 @@
         <v>371842</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>572</v>
@@ -1800,13 +1791,13 @@
         <v>694041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1853,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1874,13 +1865,13 @@
         <v>47494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -1889,13 +1880,13 @@
         <v>44214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -1904,13 +1895,13 @@
         <v>91707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1916,13 @@
         <v>14807</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -1940,13 +1931,13 @@
         <v>23972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -1955,13 +1946,13 @@
         <v>38779</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1967,13 @@
         <v>92924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
@@ -1991,13 +1982,13 @@
         <v>110380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -2006,13 +1997,13 @@
         <v>203303</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2018,7 @@
         <v>402028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>116</v>
@@ -2149,10 +2140,10 @@
         <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -2161,13 +2152,13 @@
         <v>92489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2173,13 @@
         <v>16459</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2197,13 +2188,13 @@
         <v>26457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -2424,7 +2415,7 @@
         <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2430,13 @@
         <v>19110</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2454,13 +2445,13 @@
         <v>24488</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -2469,13 +2460,13 @@
         <v>43598</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2481,13 @@
         <v>200208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>290</v>
@@ -2505,13 +2496,13 @@
         <v>178191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>510</v>
@@ -2520,13 +2511,13 @@
         <v>378400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2532,13 @@
         <v>327124</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>621</v>
@@ -2556,13 +2547,13 @@
         <v>358211</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>985</v>
@@ -2571,13 +2562,13 @@
         <v>685335</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2624,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2642,16 +2633,16 @@
         <v>79</v>
       </c>
       <c r="D29" s="7">
-        <v>59144</v>
+        <v>59143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>106</v>
@@ -2660,13 +2651,13 @@
         <v>62710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>185</v>
@@ -2675,13 +2666,13 @@
         <v>121854</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2687,13 @@
         <v>20615</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -2711,13 +2702,13 @@
         <v>22424</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>67</v>
@@ -2726,13 +2717,13 @@
         <v>43038</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2738,13 @@
         <v>282678</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>670</v>
@@ -2762,13 +2753,13 @@
         <v>363585</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>1093</v>
@@ -2777,13 +2768,13 @@
         <v>646263</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2789,13 @@
         <v>335318</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>892</v>
@@ -2813,13 +2804,13 @@
         <v>576853</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>1389</v>
@@ -2828,13 +2819,13 @@
         <v>912171</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2837,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2902,13 +2893,13 @@
         <v>287344</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>342</v>
@@ -2917,13 +2908,13 @@
         <v>267309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>608</v>
@@ -2932,13 +2923,13 @@
         <v>554653</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2944,13 @@
         <v>98614</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>159</v>
@@ -2968,13 +2959,13 @@
         <v>117410</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>260</v>
@@ -2983,13 +2974,13 @@
         <v>216024</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2995,13 @@
         <v>878432</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>1476</v>
@@ -3019,13 +3010,13 @@
         <v>962381</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>2410</v>
@@ -3034,13 +3025,13 @@
         <v>1840813</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3046,13 @@
         <v>2120838</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>3384</v>
@@ -3070,28 +3061,28 @@
         <v>2459398</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>5459</v>
       </c>
       <c r="N37" s="7">
-        <v>4580236</v>
+        <v>4580237</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3124,7 @@
         <v>8737</v>
       </c>
       <c r="N38" s="7">
-        <v>7191726</v>
+        <v>7191727</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3147,7 +3138,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E7EE7D-D502-4C84-A415-BF0276E03ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8583C9-811F-4068-8CF7-640170F7AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F42F88A-CC4B-4FB7-AFF5-1964D496B419}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{57292ED5-D5D7-4836-B5AB-24BB90460B49}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="302">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -65,754 +65,880 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí, otra persona</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>Sí, mi médico/a</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659E352A-090E-4AF4-971F-2A296E2D9A58}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D012ED-9681-4F17-A6D4-1723807588A9}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1348,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>44245</v>
+        <v>43953</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>41429</v>
+        <v>31912</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1504,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>85674</v>
+        <v>75864</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>9637</v>
+        <v>8572</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>6037</v>
+        <v>5072</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>15674</v>
+        <v>13645</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>22385</v>
+        <v>25857</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1465,7 +1591,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>44174</v>
+        <v>37469</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1480,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="7">
-        <v>66558</v>
+        <v>63326</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1501,7 +1627,7 @@
         <v>139</v>
       </c>
       <c r="D7" s="7">
-        <v>301412</v>
+        <v>321605</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1516,7 +1642,7 @@
         <v>160</v>
       </c>
       <c r="I7" s="7">
-        <v>263317</v>
+        <v>238747</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1531,7 +1657,7 @@
         <v>299</v>
       </c>
       <c r="N7" s="7">
-        <v>564729</v>
+        <v>560352</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1552,7 +1678,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1567,7 +1693,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1582,7 +1708,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1605,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>35288</v>
+        <v>31338</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1620,7 +1746,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>37754</v>
+        <v>31510</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1635,7 +1761,7 @@
         <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>73042</v>
+        <v>62848</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1656,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>17985</v>
+        <v>15438</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1671,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>14033</v>
+        <v>11456</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1686,16 +1812,16 @@
         <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>32018</v>
+        <v>26894</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,46 +1833,46 @@
         <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>52924</v>
+        <v>51610</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>64</v>
       </c>
       <c r="I11" s="7">
-        <v>74949</v>
+        <v>66648</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>127873</v>
+        <v>118258</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,46 +1884,46 @@
         <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>322199</v>
+        <v>325161</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
       </c>
       <c r="I12" s="7">
-        <v>371842</v>
+        <v>401890</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>572</v>
       </c>
       <c r="N12" s="7">
-        <v>694041</v>
+        <v>727051</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,7 +1935,7 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1824,7 +1950,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1839,7 +1965,7 @@
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1853,7 +1979,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1862,46 +1988,46 @@
         <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>47494</v>
+        <v>42962</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>44214</v>
+        <v>39535</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>91707</v>
+        <v>82497</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,46 +2039,46 @@
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>14807</v>
+        <v>13148</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>23972</v>
+        <v>20764</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
       </c>
       <c r="N15" s="7">
-        <v>38779</v>
+        <v>33912</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,46 +2090,46 @@
         <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>92924</v>
+        <v>86057</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>110380</v>
+        <v>100976</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
       </c>
       <c r="N16" s="7">
-        <v>203303</v>
+        <v>187033</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,46 +2141,46 @@
         <v>403</v>
       </c>
       <c r="D17" s="7">
-        <v>402028</v>
+        <v>394171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>600</v>
       </c>
       <c r="I17" s="7">
-        <v>404910</v>
+        <v>381192</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1003</v>
       </c>
       <c r="N17" s="7">
-        <v>806937</v>
+        <v>775363</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2192,7 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2081,7 +2207,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2096,7 +2222,7 @@
         <v>1392</v>
       </c>
       <c r="N18" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2110,7 +2236,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2119,46 +2245,46 @@
         <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>47459</v>
+        <v>41117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>45030</v>
+        <v>39595</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
       </c>
       <c r="N19" s="7">
-        <v>92489</v>
+        <v>80712</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,37 +2296,37 @@
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>16459</v>
+        <v>14458</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>26457</v>
+        <v>22812</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="M20" s="7">
         <v>50</v>
       </c>
       <c r="N20" s="7">
-        <v>42916</v>
+        <v>37270</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>138</v>
@@ -2221,7 +2347,7 @@
         <v>162</v>
       </c>
       <c r="D21" s="7">
-        <v>227313</v>
+        <v>409047</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2236,7 +2362,7 @@
         <v>275</v>
       </c>
       <c r="I21" s="7">
-        <v>191103</v>
+        <v>172274</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2251,7 +2377,7 @@
         <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>418416</v>
+        <v>581322</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2272,7 +2398,7 @@
         <v>445</v>
       </c>
       <c r="D22" s="7">
-        <v>432758</v>
+        <v>423164</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2287,7 +2413,7 @@
         <v>766</v>
       </c>
       <c r="I22" s="7">
-        <v>484265</v>
+        <v>477816</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -2302,7 +2428,7 @@
         <v>1211</v>
       </c>
       <c r="N22" s="7">
-        <v>917023</v>
+        <v>900981</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -2323,7 +2449,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2338,7 +2464,7 @@
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2353,7 +2479,7 @@
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2376,46 +2502,46 @@
         <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>53715</v>
+        <v>47357</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
       </c>
       <c r="I24" s="7">
-        <v>36173</v>
+        <v>31747</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>108</v>
       </c>
       <c r="N24" s="7">
-        <v>89888</v>
+        <v>79104</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,7 +2553,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>19110</v>
+        <v>16638</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>168</v>
@@ -2436,37 +2562,37 @@
         <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>24488</v>
+        <v>21298</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>43598</v>
+        <v>37936</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,46 +2604,46 @@
         <v>220</v>
       </c>
       <c r="D26" s="7">
-        <v>200208</v>
+        <v>186676</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>290</v>
       </c>
       <c r="I26" s="7">
-        <v>178191</v>
+        <v>161624</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>510</v>
       </c>
       <c r="N26" s="7">
-        <v>378400</v>
+        <v>348299</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,46 +2655,46 @@
         <v>364</v>
       </c>
       <c r="D27" s="7">
-        <v>327124</v>
+        <v>310564</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>621</v>
       </c>
       <c r="I27" s="7">
-        <v>358211</v>
+        <v>333236</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>985</v>
       </c>
       <c r="N27" s="7">
-        <v>685335</v>
+        <v>643800</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2706,7 @@
         <v>663</v>
       </c>
       <c r="D28" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2595,7 +2721,7 @@
         <v>1002</v>
       </c>
       <c r="I28" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2610,7 +2736,7 @@
         <v>1665</v>
       </c>
       <c r="N28" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2624,55 +2750,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7">
-        <v>59143</v>
+        <v>30765</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I29" s="7">
-        <v>62710</v>
+        <v>26804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="N29" s="7">
-        <v>121854</v>
+        <v>57569</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,49 +2807,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7">
-        <v>20615</v>
+        <v>11926</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I30" s="7">
-        <v>22424</v>
+        <v>9561</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N30" s="7">
-        <v>43038</v>
+        <v>21487</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2858,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>423</v>
+        <v>221</v>
       </c>
       <c r="D31" s="7">
-        <v>282678</v>
+        <v>142377</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
-        <v>670</v>
+        <v>302</v>
       </c>
       <c r="I31" s="7">
-        <v>363585</v>
+        <v>149443</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
-        <v>1093</v>
+        <v>523</v>
       </c>
       <c r="N31" s="7">
-        <v>646263</v>
+        <v>291820</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,49 +2909,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="D32" s="7">
-        <v>335318</v>
+        <v>183097</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
-        <v>892</v>
+        <v>455</v>
       </c>
       <c r="I32" s="7">
-        <v>576853</v>
+        <v>422560</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
-        <v>1389</v>
+        <v>738</v>
       </c>
       <c r="N32" s="7">
-        <v>912171</v>
+        <v>605657</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2849,10 +2975,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1025572</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2864,10 +2990,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1723326</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2881,55 +3007,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="D34" s="7">
-        <v>287344</v>
+        <v>21512</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
-        <v>342</v>
+        <v>54</v>
       </c>
       <c r="I34" s="7">
-        <v>267309</v>
+        <v>28085</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
-        <v>608</v>
+        <v>86</v>
       </c>
       <c r="N34" s="7">
-        <v>554653</v>
+        <v>49597</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +3064,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
-        <v>98614</v>
+        <v>6197</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I35" s="7">
-        <v>117410</v>
+        <v>9724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="N35" s="7">
-        <v>216024</v>
+        <v>15920</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,49 +3115,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>934</v>
+        <v>202</v>
       </c>
       <c r="D36" s="7">
-        <v>878432</v>
+        <v>121613</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
-        <v>1476</v>
+        <v>368</v>
       </c>
       <c r="I36" s="7">
-        <v>962381</v>
+        <v>177305</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
-        <v>2410</v>
+        <v>570</v>
       </c>
       <c r="N36" s="7">
-        <v>1840813</v>
+        <v>298918</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,49 +3166,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>2075</v>
+        <v>214</v>
       </c>
       <c r="D37" s="7">
-        <v>2120838</v>
+        <v>133437</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
-        <v>3384</v>
+        <v>437</v>
       </c>
       <c r="I37" s="7">
-        <v>2459398</v>
+        <v>209748</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
-        <v>5459</v>
+        <v>651</v>
       </c>
       <c r="N37" s="7">
-        <v>4580237</v>
+        <v>343185</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,63 +3217,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>879</v>
+      </c>
+      <c r="I38" s="7">
+        <v>424861</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N38" s="7">
+        <v>707620</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>266</v>
+      </c>
+      <c r="D39" s="7">
+        <v>259003</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H39" s="7">
+        <v>342</v>
+      </c>
+      <c r="I39" s="7">
+        <v>229188</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M39" s="7">
+        <v>608</v>
+      </c>
+      <c r="N39" s="7">
+        <v>488192</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>101</v>
+      </c>
+      <c r="D40" s="7">
+        <v>86377</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="7">
+        <v>159</v>
+      </c>
+      <c r="I40" s="7">
+        <v>100687</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" s="7">
+        <v>260</v>
+      </c>
+      <c r="N40" s="7">
+        <v>187064</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>934</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1023237</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1476</v>
+      </c>
+      <c r="I41" s="7">
+        <v>865740</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2410</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1888977</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2075</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2091200</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3384</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2465189</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" s="7">
+        <v>5459</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4556388</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3376</v>
       </c>
-      <c r="D38" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5361</v>
       </c>
-      <c r="I38" s="7">
-        <v>3806498</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3660804</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8737</v>
       </c>
-      <c r="N38" s="7">
-        <v>7191727</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>259</v>
+      <c r="N43" s="7">
+        <v>7120621</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
